--- a/temp/THU CHI T5-22.xlsx
+++ b/temp/THU CHI T5-22.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Downloads\busisness-job\Rau cu nam restaurant\programming\report-module-data-warehouse\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E096B7B8-447C-474E-89EE-637ABDD90F83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{151343DA-4FCF-4B74-95F6-0B9087DA35A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DOANH THU" sheetId="1" r:id="rId1"/>
@@ -2433,7 +2433,7 @@
   <dimension ref="A1:W998"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
@@ -21986,16 +21986,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:X994"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomRight" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
     <col min="2" max="2" width="24.140625" customWidth="1"/>
     <col min="3" max="3" width="33.7109375" customWidth="1"/>
     <col min="4" max="4" width="29.85546875" customWidth="1"/>
@@ -31215,7 +31215,9 @@
   </sheetPr>
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <sheetData>
@@ -31231,9 +31233,7 @@
       <c r="A2" s="258">
         <v>44682</v>
       </c>
-      <c r="B2" s="259">
-        <v>0</v>
-      </c>
+      <c r="B2" s="259"/>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1">
       <c r="A3" s="258">
@@ -31485,7 +31485,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C73C534-A382-46A2-9DE7-14C647D27EE7}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -31566,7 +31566,7 @@
     <row r="1" spans="1:26" ht="13.5" customHeight="1">
       <c r="A1" s="264" t="str">
         <f ca="1">"CTY CP-DT-TM HIEP BINH      Ngay: "&amp;TEXT(NOW(),"dd/mm/yyyy")</f>
-        <v>CTY CP-DT-TM HIEP BINH      Ngay: 17/09/2022</v>
+        <v>CTY CP-DT-TM HIEP BINH      Ngay: 20/09/2022</v>
       </c>
       <c r="B1" s="264"/>
       <c r="C1" s="264"/>
@@ -31602,7 +31602,7 @@
     <row r="2" spans="1:26" ht="13.5" customHeight="1">
       <c r="A2" s="264" t="str">
         <f ca="1">"Ecco - Crescent Mall                 Gio:       "&amp;TEXT(NOW(),"hh:mm")</f>
-        <v>Ecco - Crescent Mall                 Gio:       08:23</v>
+        <v>Ecco - Crescent Mall                 Gio:       14:06</v>
       </c>
       <c r="B2" s="264"/>
       <c r="C2" s="264"/>

--- a/temp/THU CHI T5-22.xlsx
+++ b/temp/THU CHI T5-22.xlsx
@@ -31610,7 +31610,7 @@
     <row r="1" ht="13.5" customHeight="1">
       <c r="A1" s="267" t="str">
         <f>"CTY CP-DT-TM HIEP BINH      Ngay: "&amp;TEXT(NOW(),"dd/mm/yyyy")</f>
-        <v>CTY CP-DT-TM HIEP BINH      Ngay: 22/09/2022</v>
+        <v>CTY CP-DT-TM HIEP BINH      Ngay: 26/09/2022</v>
       </c>
       <c r="B1" s="267"/>
       <c r="C1" s="267"/>
@@ -31644,7 +31644,7 @@
     <row r="2" ht="13.5" customHeight="1">
       <c r="A2" s="267" t="str">
         <f>"Ecco - Crescent Mall                 Gio:       "&amp;TEXT(NOW(),"hh:mm")</f>
-        <v>Ecco - Crescent Mall                 Gio:       20:39</v>
+        <v>Ecco - Crescent Mall                 Gio:       07:47</v>
       </c>
       <c r="B2" s="267"/>
       <c r="C2" s="267"/>

--- a/temp/THU CHI T5-22.xlsx
+++ b/temp/THU CHI T5-22.xlsx
@@ -31610,7 +31610,7 @@
     <row r="1" ht="13.5" customHeight="1">
       <c r="A1" s="267" t="str">
         <f>"CTY CP-DT-TM HIEP BINH      Ngay: "&amp;TEXT(NOW(),"dd/mm/yyyy")</f>
-        <v>CTY CP-DT-TM HIEP BINH      Ngay: 26/09/2022</v>
+        <v>CTY CP-DT-TM HIEP BINH      Ngay: 28/09/2022</v>
       </c>
       <c r="B1" s="267"/>
       <c r="C1" s="267"/>

--- a/temp/THU CHI T5-22.xlsx
+++ b/temp/THU CHI T5-22.xlsx
@@ -31610,7 +31610,7 @@
     <row r="1" ht="13.5" customHeight="1">
       <c r="A1" s="267" t="str">
         <f>"CTY CP-DT-TM HIEP BINH      Ngay: "&amp;TEXT(NOW(),"dd/mm/yyyy")</f>
-        <v>CTY CP-DT-TM HIEP BINH      Ngay: 28/09/2022</v>
+        <v>CTY CP-DT-TM HIEP BINH      Ngay: 29/09/2022</v>
       </c>
       <c r="B1" s="267"/>
       <c r="C1" s="267"/>
@@ -31644,7 +31644,7 @@
     <row r="2" ht="13.5" customHeight="1">
       <c r="A2" s="267" t="str">
         <f>"Ecco - Crescent Mall                 Gio:       "&amp;TEXT(NOW(),"hh:mm")</f>
-        <v>Ecco - Crescent Mall                 Gio:       07:47</v>
+        <v>Ecco - Crescent Mall                 Gio:       08:12</v>
       </c>
       <c r="B2" s="267"/>
       <c r="C2" s="267"/>

--- a/temp/THU CHI T5-22.xlsx
+++ b/temp/THU CHI T5-22.xlsx
@@ -31644,7 +31644,7 @@
     <row r="2" ht="13.5" customHeight="1">
       <c r="A2" s="267" t="str">
         <f>"Ecco - Crescent Mall                 Gio:       "&amp;TEXT(NOW(),"hh:mm")</f>
-        <v>Ecco - Crescent Mall                 Gio:       08:12</v>
+        <v>Ecco - Crescent Mall                 Gio:       22:03</v>
       </c>
       <c r="B2" s="267"/>
       <c r="C2" s="267"/>
